--- a/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/Black Box Tests/test-cases.xlsx
+++ b/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/Black Box Tests/test-cases.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SFT221\summer24--sft221-nbb-2\Documents\Testing\Tests Documents\Black Box Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470D5D5-0F22-4DC9-B4FC-9ECC0A9A0764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E0CD75-9CEA-4083-BB81-B7FBA3C47F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Declaration" sheetId="2" r:id="rId1"/>
     <sheet name="findTruckForShipment" sheetId="1" r:id="rId2"/>
     <sheet name="distance" sheetId="4" r:id="rId3"/>
     <sheet name="shortestPath" sheetId="5" r:id="rId4"/>
-    <sheet name="functionName" sheetId="3" r:id="rId5"/>
+    <sheet name="isValidDestination" sheetId="6" r:id="rId5"/>
+    <sheet name="functionName" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="120">
   <si>
     <t>SFT 221 Project</t>
   </si>
@@ -377,6 +378,67 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>FUNCTION: isValidDestination</t>
+  </si>
+  <si>
+    <t>FDV01</t>
+  </si>
+  <si>
+    <t>FDV02</t>
+  </si>
+  <si>
+    <t>FDV03</t>
+  </si>
+  <si>
+    <t>FDV04</t>
+  </si>
+  <si>
+    <t>map =map from populateMap()</t>
+  </si>
+  <si>
+    <t>destination = {2, 2}</t>
+  </si>
+  <si>
+    <t>destination = {1, 3}</t>
+  </si>
+  <si>
+    <t>Valid Inputs test with no building in point</t>
+  </si>
+  <si>
+    <t>1. use populateMap to populate map struct
+2. pass map to function with point on no buildings in that map</t>
+  </si>
+  <si>
+    <t>Valid Inputs test with building in point</t>
+  </si>
+  <si>
+    <t>1. use populateMap to populate map struct
+2. pass map to function with point on building in that map</t>
+  </si>
+  <si>
+    <t>Negative inputs test</t>
+  </si>
+  <si>
+    <t>destination = {-2, 5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. use populateMap to populate map struct
+2. pass map to function with negative point </t>
+  </si>
+  <si>
+    <t>destination = {5, 5}</t>
+  </si>
+  <si>
+    <t>map = NULL</t>
+  </si>
+  <si>
+    <t>NULL map test</t>
+  </si>
+  <si>
+    <t>1. assign an NULL value to map
+2. pass map to function with valid points</t>
   </si>
 </sst>
 </file>
@@ -1355,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B164E6-1E38-0940-AB13-E6AE19A61BB4}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="116" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1566,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40543444-1F56-044E-95D2-8BD3ED5AEEC7}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1774,10 +1836,229 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A628785-1246-498A-9295-C06BCB9FB1F5}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="116" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B2243F-1AED-0646-A381-E85BF742B2DB}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="116" workbookViewId="0">
+    <sheetView zoomScale="116" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>

--- a/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/Black Box Tests/test-cases.xlsx
+++ b/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/Black Box Tests/test-cases.xlsx
@@ -5,19 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\SCHOOL\summer-2024\sft221-nbb\milestones\summer24--sft221-nbb-2\Documents\Testing\Tests Documents\Black Box Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SFT221\summer24--sft221-nbb-2\Documents\Testing\Tests Documents\Black Box Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D480EB-1BA4-4AB5-9C0C-419FF9FC27C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C922123B-A9A9-4E21-B138-50D499625053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Declaration" sheetId="2" r:id="rId1"/>
     <sheet name="findTruckForShipment" sheetId="1" r:id="rId2"/>
-    <sheet name="distance" sheetId="4" r:id="rId3"/>
-    <sheet name="shortestPath" sheetId="5" r:id="rId4"/>
-    <sheet name="isValidDestination" sheetId="6" r:id="rId5"/>
+    <sheet name="isValidDestination" sheetId="6" r:id="rId3"/>
+    <sheet name="calculateAvailableSpace" sheetId="3" r:id="rId4"/>
+    <sheet name="isValidPoint" sheetId="7" r:id="rId5"/>
+    <sheet name="distance" sheetId="4" r:id="rId6"/>
+    <sheet name="shortestPath" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="148">
   <si>
     <t>SFT 221 Project</t>
   </si>
@@ -80,21 +82,6 @@
     <t>Blackbox</t>
   </si>
   <si>
-    <t>Login Test</t>
-  </si>
-  <si>
-    <t>passwd=secret</t>
-  </si>
-  <si>
-    <t>Successful login</t>
-  </si>
-  <si>
-    <t>1. Go to the login page
-2. Enter user name
-3. Enter password
-4. Click "Login"</t>
-  </si>
-  <si>
     <t>Eric Yakimoff</t>
   </si>
   <si>
@@ -114,9 +101,6 @@
   </si>
   <si>
     <t>parameter4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map = </t>
   </si>
   <si>
     <t>Valid inputs test</t>
@@ -334,6 +318,30 @@
     <t>dest = {-4, -4}</t>
   </si>
   <si>
+    <t>FT001</t>
+  </si>
+  <si>
+    <t>FT002</t>
+  </si>
+  <si>
+    <t>FT003</t>
+  </si>
+  <si>
+    <t>FT004</t>
+  </si>
+  <si>
+    <t>FD001</t>
+  </si>
+  <si>
+    <t>FD002</t>
+  </si>
+  <si>
+    <t>FD003</t>
+  </si>
+  <si>
+    <t>FD004</t>
+  </si>
+  <si>
     <t>Returns -1, as points are not negative in this programs map.</t>
   </si>
   <si>
@@ -344,6 +352,18 @@
   </si>
   <si>
     <t>FUNCTION: isValidDestination</t>
+  </si>
+  <si>
+    <t>FDV01</t>
+  </si>
+  <si>
+    <t>FDV02</t>
+  </si>
+  <si>
+    <t>FDV03</t>
+  </si>
+  <si>
+    <t>FDV04</t>
   </si>
   <si>
     <t>map =map from populateMap()</t>
@@ -392,52 +412,133 @@
 2. pass map to function with valid points</t>
   </si>
   <si>
-    <t>BB_FDV01</t>
-  </si>
-  <si>
-    <t>BB_FDV02</t>
-  </si>
-  <si>
-    <t>BB_FDV03</t>
-  </si>
-  <si>
-    <t>BB_FDV04</t>
-  </si>
-  <si>
-    <t>BB_FN001</t>
-  </si>
-  <si>
-    <t>BB_FN002</t>
-  </si>
-  <si>
-    <t>BB_FN003</t>
-  </si>
-  <si>
-    <t>BB_FN004</t>
-  </si>
-  <si>
-    <t>BB_FD001</t>
-  </si>
-  <si>
-    <t>BB_FD002</t>
-  </si>
-  <si>
-    <t>BB_FD003</t>
-  </si>
-  <si>
-    <t>BB_FD004</t>
-  </si>
-  <si>
-    <t>BB_FT001</t>
-  </si>
-  <si>
-    <t>BB_FT002</t>
-  </si>
-  <si>
-    <t>BB_FT004</t>
-  </si>
-  <si>
-    <t>BB_FT003</t>
+    <t>FUNCTION: isValidPoint</t>
+  </si>
+  <si>
+    <t>FP001</t>
+  </si>
+  <si>
+    <t>FP002</t>
+  </si>
+  <si>
+    <t>FP003</t>
+  </si>
+  <si>
+    <t>FP004</t>
+  </si>
+  <si>
+    <t>Valid Point Test</t>
+  </si>
+  <si>
+    <t>1. Create point struct with valid values.
+2. Pass point to function.
+3. Have function set to a variable.
+4. Check variable for correct value</t>
+  </si>
+  <si>
+    <t>point = {12, 5}</t>
+  </si>
+  <si>
+    <t>Returns 1</t>
+  </si>
+  <si>
+    <t>Invalid Points test</t>
+  </si>
+  <si>
+    <t>1. Create point struct with invalid values.
+2. Pass point to function.
+3. Have function set to a variable.
+4. Check variable for correct value</t>
+  </si>
+  <si>
+    <t>point = {-2, 5}</t>
+  </si>
+  <si>
+    <t>Empty point test</t>
+  </si>
+  <si>
+    <t>Max Value test</t>
+  </si>
+  <si>
+    <t>FUNCTION: calculateAvailableSpace</t>
+  </si>
+  <si>
+    <t>Truck has space for this package</t>
+  </si>
+  <si>
+    <t>truck = {null, 500, 50, 'B', {}, 0}</t>
+  </si>
+  <si>
+    <t>package = {null, 500, 2}</t>
+  </si>
+  <si>
+    <t>FS001</t>
+  </si>
+  <si>
+    <t>FS002</t>
+  </si>
+  <si>
+    <t>FS003</t>
+  </si>
+  <si>
+    <t>FS004</t>
+  </si>
+  <si>
+    <t>1. create a truck with space for a 500kg, 2 volume package
+2. pass the function this truck and package
+3. check the return result of function.</t>
+  </si>
+  <si>
+    <t>package = {null, 332, 29}</t>
+  </si>
+  <si>
+    <t>1. create a truck with no space for a 332kg, 29 volume package
+2. pass the function this truck and package
+3. check the return result of function.</t>
+  </si>
+  <si>
+    <t>Package Exceeds Weight Limit</t>
+  </si>
+  <si>
+    <t>Package Exceeds Volume Limit</t>
+  </si>
+  <si>
+    <t>truck = {null,2400, 20, 'B', {}, 0}</t>
+  </si>
+  <si>
+    <t>truck = {null,2000, 89, 'B', {}, 0}</t>
+  </si>
+  <si>
+    <t>Package Exactly fits limits Limit</t>
+  </si>
+  <si>
+    <t>1. create a truck with exact space for a 2500kg, 100 volume package
+2. pass the function this truck and package
+3. check the return result of function.</t>
+  </si>
+  <si>
+    <t>truck = {null,0, 0, 'B', {}, 0}</t>
+  </si>
+  <si>
+    <t>package = {null, 2500, 100}</t>
+  </si>
+  <si>
+    <t>1. Create point struct with maximum valid values (24).
+2. Pass point to function.
+3. Have function set to a variable.
+4. Check variable for correct value</t>
+  </si>
+  <si>
+    <t>point = {24, 24}</t>
+  </si>
+  <si>
+    <t>1. Create point struct with nullptr.
+2. Pass point to function.
+3. Have function set to a variable.
+4. Check variable for correct value</t>
+  </si>
+  <si>
+    <t>point = nullptr</t>
   </si>
 </sst>
 </file>
@@ -663,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -672,100 +773,97 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,127 +1151,127 @@
       <selection activeCell="B10" sqref="B10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.6">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1194,27 +1292,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24" style="2" customWidth="1"/>
-    <col min="4" max="4" width="54" style="2" customWidth="1"/>
-    <col min="5" max="8" width="27.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="31" customWidth="1"/>
-    <col min="10" max="11" width="12.85546875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="15.140625" style="2"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1227,175 +1324,181 @@
       <c r="J1" s="25"/>
       <c r="K1" s="26"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="22" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="4" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="1:11" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="34" t="s">
+      <c r="H4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="34" t="s">
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="203" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="34" t="s">
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="34" t="s">
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="34" t="s">
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="34" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="34" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" s="34" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" s="34" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:K1"/>
@@ -1414,28 +1517,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B164E6-1E38-0940-AB13-E6AE19A61BB4}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A628785-1246-498A-9295-C06BCB9FB1F5}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD11"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58.5703125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="19" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="31" customWidth="1"/>
-    <col min="8" max="9" width="14" style="31" customWidth="1"/>
-    <col min="10" max="16384" width="6.42578125" style="2"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1446,168 +1548,150 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="22" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="4" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="34" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="34">
-        <v>4.2426399999999997</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="34">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="C5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="34">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="34" t="s">
+      <c r="C6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="34">
+      <c r="C7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:I1"/>
@@ -1626,27 +1710,605 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40543444-1F56-044E-95D2-8BD3ED5AEEC7}">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B2243F-1AED-0646-A381-E85BF742B2DB}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD14"/>
+    <sheetView topLeftCell="A5" zoomScale="116" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="30" customWidth="1"/>
-    <col min="6" max="7" width="32.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26" style="2" customWidth="1"/>
-    <col min="9" max="10" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="6.42578125" style="2"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE84EB5A-E5F8-4BC1-BE3B-78E711C2368B}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="116" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B164E6-1E38-0940-AB13-E6AE19A61BB4}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="116" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="174" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4.2426399999999997</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="174" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="174" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="174" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40543444-1F56-044E-95D2-8BD3ED5AEEC7}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.453125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
@@ -1660,176 +2322,164 @@
       <c r="I1" s="25"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:10" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="34" t="s">
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="H4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="34" t="s">
+      <c r="H5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="D6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1848,227 +2498,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A628785-1246-498A-9295-C06BCB9FB1F5}">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="22.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="31" customWidth="1"/>
-    <col min="8" max="9" width="11.28515625" style="31" customWidth="1"/>
-    <col min="10" max="16384" width="6.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F15B28F3A9F34C9CE3CB4B37C40C84" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e8c8c2621d0a566110d18afec2953c8d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="33505ad1-6434-4d17-87c1-413dd10139de" xmlns:ns3="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91c8afe27044be736d649d52aac2a536" ns2:_="" ns3:_="">
     <xsd:import namespace="33505ad1-6434-4d17-87c1-413dd10139de"/>
@@ -2269,36 +2714,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53E2559-C623-4E5D-90A4-D51F80761861}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F95A9E1-C126-4761-B605-F7F93C5B6CFB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="33505ad1-6434-4d17-87c1-413dd10139de"/>
-    <ds:schemaRef ds:uri="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2321,9 +2740,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F95A9E1-C126-4761-B605-F7F93C5B6CFB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53E2559-C623-4E5D-90A4-D51F80761861}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="33505ad1-6434-4d17-87c1-413dd10139de"/>
+    <ds:schemaRef ds:uri="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>